--- a/src/public/uploads/Libro9.xlsx
+++ b/src/public/uploads/Libro9.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliocesarmendoza/Desktop/pipApp/Backend-pi/src/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77289C90-8432-C94C-953B-B72282477FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCDDA5-6E30-954C-9BEA-CC44048D5375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1100" windowWidth="15300" windowHeight="16940" xr2:uid="{CD11D1FB-0E8B-A843-8457-7B1D74CFC3AA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26780" xr2:uid="{CD11D1FB-0E8B-A843-8457-7B1D74CFC3AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:B613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
